--- a/Physiocare_Bill_Format.xlsx
+++ b/Physiocare_Bill_Format.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akash\source\repos\Physiocare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB319F6-7764-442A-B021-5D133505098A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012A38D9-3DA4-40F2-83EA-8663C1F263CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A33A4043-22E6-421C-BF46-3C70BD2F9797}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>RECEIPT</t>
   </si>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t>Mobile: 0123456789</t>
+  </si>
+  <si>
+    <t>Dr. XYZZ</t>
   </si>
 </sst>
 </file>
@@ -632,49 +635,43 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -694,44 +691,50 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1050,7 +1053,7 @@
   <dimension ref="A2:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1387,47 +1390,47 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="37"/>
     </row>
     <row r="4" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A4" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
+      <c r="A4" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="63"/>
+      <c r="G4" s="41"/>
     </row>
     <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
       <c r="E6" s="1"/>
       <c r="F6" s="4" t="s">
         <v>1</v>
@@ -1437,9 +1440,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="68"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7" t="s">
@@ -1462,11 +1465,11 @@
       <c r="A9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
       <c r="E9" s="11" t="s">
         <v>7</v>
       </c>
@@ -1479,14 +1482,14 @@
       <c r="A10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="50"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="48"/>
     </row>
     <row r="11" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
@@ -1505,37 +1508,37 @@
       <c r="A12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="52"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="50"/>
     </row>
     <row r="13" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
       <c r="E13" s="18"/>
       <c r="F13" s="19"/>
       <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="56" t="s">
+      <c r="B14" s="53"/>
+      <c r="C14" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="56"/>
+      <c r="D14" s="54"/>
       <c r="E14" s="21" t="s">
         <v>19</v>
       </c>
@@ -1547,14 +1550,14 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="43" t="s">
+      <c r="B15" s="56"/>
+      <c r="C15" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="43"/>
+      <c r="D15" s="57"/>
       <c r="E15" s="23" t="s">
         <v>8</v>
       </c>
@@ -1566,39 +1569,39 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="45"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
       <c r="G16" s="26"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="45"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
       <c r="G17" s="26"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="45"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="47"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="61"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
       <c r="G18" s="26"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="33"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="35" t="s">
+      <c r="A19" s="62"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="36"/>
+      <c r="D19" s="65"/>
       <c r="E19" s="23" t="s">
         <v>8</v>
       </c>
@@ -1648,8 +1651,8 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="3"/>
@@ -1657,39 +1660,39 @@
     <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="28"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39" t="s">
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="39"/>
-      <c r="G25" s="40"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A6:D6"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Physiocare_Bill_Format.xlsx
+++ b/Physiocare_Bill_Format.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akash\source\repos\Physiocare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012A38D9-3DA4-40F2-83EA-8663C1F263CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67962999-F1B4-4F55-B979-3884FAF30582}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A33A4043-22E6-421C-BF46-3C70BD2F9797}"/>
   </bookViews>
@@ -227,7 +227,7 @@
     <t>Mobile: 0123456789</t>
   </si>
   <si>
-    <t>Dr. XYZZ</t>
+    <t>Dr. XYZZZ</t>
   </si>
 </sst>
 </file>
@@ -635,43 +635,49 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -691,50 +697,44 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1390,47 +1390,47 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61"/>
     </row>
     <row r="4" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="41"/>
+      <c r="G4" s="65"/>
     </row>
     <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
       <c r="E6" s="1"/>
       <c r="F6" s="4" t="s">
         <v>1</v>
@@ -1440,9 +1440,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="33"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7" t="s">
@@ -1465,11 +1465,11 @@
       <c r="A9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="11" t="s">
         <v>7</v>
       </c>
@@ -1482,14 +1482,14 @@
       <c r="A10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="50"/>
     </row>
     <row r="11" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
@@ -1508,37 +1508,37 @@
       <c r="A12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="50"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="52"/>
     </row>
     <row r="13" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
       <c r="E13" s="18"/>
       <c r="F13" s="19"/>
       <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="54" t="s">
+      <c r="B14" s="55"/>
+      <c r="C14" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="54"/>
+      <c r="D14" s="56"/>
       <c r="E14" s="21" t="s">
         <v>19</v>
       </c>
@@ -1550,14 +1550,14 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="57" t="s">
+      <c r="B15" s="42"/>
+      <c r="C15" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="57"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="23" t="s">
         <v>8</v>
       </c>
@@ -1569,39 +1569,39 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="59"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
       <c r="G16" s="26"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="59"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
       <c r="G17" s="26"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="59"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="61"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="47"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
       <c r="G18" s="26"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="62"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="64" t="s">
+      <c r="A19" s="33"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="65"/>
+      <c r="D19" s="36"/>
       <c r="E19" s="23" t="s">
         <v>8</v>
       </c>
@@ -1651,8 +1651,8 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="3"/>
@@ -1660,39 +1660,39 @@
     <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="28"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="68" t="s">
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="68"/>
-      <c r="G25" s="69"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:D17"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
